--- a/사용자 앱 현황.xlsx
+++ b/사용자 앱 현황.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>액티비티 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,27 +114,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 병원에 대한 진료 항목들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 프레임완료(슬라이드 드로우 제외), 글작성X(관리자앱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>예약관련 정보 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진료항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 병원에 대한 진료 항목들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 프레임완료(슬라이드 드로우 제외), 글작성X(관리자앱)</t>
+    <t>정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +183,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,35 +315,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -628,67 +653,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="9"/>
+    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -697,90 +723,108 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/사용자 앱 현황.xlsx
+++ b/사용자 앱 현황.xlsx
@@ -74,75 +74,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>주요기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강정보 액티비티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 병원들, 클릭시  &gt;&gt; 병원상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기부터 보여지는 하단/프레그먼트로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/회원가입/카카오톡 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부과의 전체적인 주요 FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 병원에 대한 진료 항목들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 프레임완료(슬라이드 드로우 제외), 글작성X(관리자앱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약관련 정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>병원상세정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주요기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강정보 액티비티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 병원들, 클릭시  &gt;&gt; 병원상세정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기부터 보여지는 하단/프레그먼트로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인/회원가입/카카오톡 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원들의 정보/ 예약하기 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부과의 전체적인 주요 FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 앱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진료항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 병원에 대한 진료 항목들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 프레임완료(슬라이드 드로우 제외), 글작성X(관리자앱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약관련 정보 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부</t>
+    <t>병원들의 정보(진료항목)/ 예약하기 버튼 /</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,32 +326,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,58 +666,58 @@
     <col min="3" max="3" width="60.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="13"/>
+    <col min="6" max="6" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -725,13 +725,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -770,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/사용자 앱 현황.xlsx
+++ b/사용자 앱 현황.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E5293E-F697-4201-811D-9EBBF4632C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3930" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,6 +363,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -409,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,9 +446,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,6 +498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -833,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -846,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/사용자 앱 현황.xlsx
+++ b/사용자 앱 현황.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E5293E-F697-4201-811D-9EBBF4632C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD31977-BCC5-4774-A217-FF6B303D62BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>액티비티 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,22 @@
   </si>
   <si>
     <t>병원들의 정보(진료항목)/ 예약하기 버튼 /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">액션 바 및 뷰페이저 제작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오류해결 중  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권상규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -847,12 +863,26 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/사용자 앱 현황.xlsx
+++ b/사용자 앱 현황.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD31977-BCC5-4774-A217-FF6B303D62BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A791EA-5B84-4EAD-98F8-77CCDB3AD656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>액티비티 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전대은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권상규</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +156,30 @@
   </si>
   <si>
     <t>액션바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전대은, 권상규 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원/약국 지도 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권상규</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,14 +738,14 @@
     <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
+    <col min="4" max="4" width="27.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -738,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -756,10 +776,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -768,122 +788,136 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/사용자 앱 현황.xlsx
+++ b/사용자 앱 현황.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A791EA-5B84-4EAD-98F8-77CCDB3AD656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B676A-8E38-4484-89E7-2963764D9EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>액티비티 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">전대은, 권상규 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>병원/약국 지도 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,26 @@
   </si>
   <si>
     <t>권상규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 권상규 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 자료바탕 테이블 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전대은</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,13 +832,13 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -836,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -918,6 +934,20 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/사용자 앱 현황.xlsx
+++ b/사용자 앱 현황.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B676A-8E38-4484-89E7-2963764D9EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B184C-8893-4B02-813C-0AC8024F1D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중(50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>병원지도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,15 +183,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB 자료바탕 테이블 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전대은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 자료조사 및 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(50%) / 예약 5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +746,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,16 +829,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
